--- a/1_Linguistic_analysis/analysis/fog-index/Results_fog_index.xlsx
+++ b/1_Linguistic_analysis/analysis/fog-index/Results_fog_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/ESCAPE/Research/WEF/Results/1. Linguistic analysis/à trier/fog index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/1_Linguistic_analysis/analysis/fog-index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0EA84575-0DAF-024F-BF93-510A5740169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F0D68D-9DA6-4F28-99A2-6AC331C3A1D0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0EA84575-0DAF-024F-BF93-510A5740169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2FFF082-339F-434D-8AEB-EA45AC6F52E1}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-300" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="10" xr2:uid="{4161C4F5-0FEF-244C-8602-CD60E586FF0C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" firstSheet="1" activeTab="10" xr2:uid="{4161C4F5-0FEF-244C-8602-CD60E586FF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS Economic" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="186">
   <si>
     <t>years</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>evolution</t>
   </si>
 </sst>
 </file>
@@ -9290,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF44982-E295-1043-99F6-7D1788F5CFC3}">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -10682,6 +10685,47 @@
       <c r="U23">
         <f t="shared" si="15"/>
         <v>0.90287782028851959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(M16:M20)-AVERAGE(M2:M6)</f>
+        <v>-0.41617914529514705</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGE(N15:N19)-AVERAGE(N2:N6)</f>
+        <v>-0.12058077993705696</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGE(O15:O19)-AVERAGE(O2:O6)</f>
+        <v>3.4080470972504773E-2</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE(P15:P19)-AVERAGE(P2:P6)</f>
+        <v>-1.3890398844294535E-2</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(Q15:Q19)-AVERAGE(Q2:Q6)</f>
+        <v>-0.12690443717841546</v>
+      </c>
+      <c r="R24">
+        <f>AVERAGE(R15:R19)-AVERAGE(R10:R14)</f>
+        <v>-6.1312486899227303E-2</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGE(S19,S17,S14)-AVERAGE(S6:S8)</f>
+        <v>-1.7788665892162436E-2</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(T18,T15,T13)-AVERAGE(T7,T9,T11)</f>
+        <v>-6.3881637975726435E-2</v>
+      </c>
+      <c r="U24">
+        <f>AVERAGE(U16:U18)-AVERAGE(U11:U13)</f>
+        <v>-0.155316315818673</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
